--- a/jsf2-primefaces-spring/src/main/resources/excel/document.xlsx
+++ b/jsf2-primefaces-spring/src/main/resources/excel/document.xlsx
@@ -32,6 +32,18 @@
     <t>${document.accountId}</t>
   </si>
   <si>
+    <t>${msg.getProperty('document_documentBinary')}</t>
+  </si>
+  <si>
+    <t>${document.documentBinary}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('document_documentFileName')}</t>
+  </si>
+  <si>
+    <t>${document.documentFileName}</t>
+  </si>
+  <si>
     <t>${msg.getProperty('document_documentContentType')}</t>
   </si>
   <si>
@@ -44,18 +56,6 @@
     <t>${document.documentSize}</t>
   </si>
   <si>
-    <t>${msg.getProperty('document_documentFileName')}</t>
-  </si>
-  <si>
-    <t>${document.documentFileName}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('document_documentBinary')}</t>
-  </si>
-  <si>
-    <t>${document.documentBinary}</t>
-  </si>
-  <si>
     <t>${msg.getProperty('document_version')}</t>
   </si>
   <si>
@@ -83,10 +83,10 @@
     <t>${msg.getProperty('search_criteria')}</t>
   </si>
   <si>
-    <t>${msg.getProperty('document_account')}</t>
-  </si>
-  <si>
-    <t>${account}</t>
+    <t>${msg.getProperty('search_full_text')}</t>
+  </si>
+  <si>
+    <t>${search_full_text}</t>
   </si>
 </sst>
 </file>

--- a/jsf2-primefaces-spring/src/main/resources/excel/document.xlsx
+++ b/jsf2-primefaces-spring/src/main/resources/excel/document.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>${msg.getProperty('document_id')}</t>
   </si>
@@ -26,10 +26,10 @@
     <t>${document.id}</t>
   </si>
   <si>
-    <t>${msg.getProperty('document_accountId')}</t>
-  </si>
-  <si>
-    <t>${document.accountId}</t>
+    <t>${msg.getProperty('document_owner')}</t>
+  </si>
+  <si>
+    <t>${printer.print(document.owner)}</t>
   </si>
   <si>
     <t>${msg.getProperty('document_documentBinary')}</t>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>${search_full_text}</t>
+  </si>
+  <si>
+    <t>${owner}</t>
   </si>
 </sst>
 </file>
@@ -537,6 +540,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
